--- a/literature_list/non-research_articles.xlsx
+++ b/literature_list/non-research_articles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12300"/>
+    <workbookView windowWidth="13464" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>Title</t>
   </si>
@@ -222,6 +222,54 @@
   </si>
   <si>
     <t>10.48550/arXiv.2307.14377</t>
+  </si>
+  <si>
+    <t>Generative AI-based predictive maintenance in aviation: a systematic literature review</t>
+  </si>
+  <si>
+    <t>CEAS Aeronautical Journal</t>
+  </si>
+  <si>
+    <t>10.1007/s13272-025-00818-1</t>
+  </si>
+  <si>
+    <t>Generative AI and Agentic Architecture in Engineering and Manufacturing Potentials and Practice of Scalable AI Solutions</t>
+  </si>
+  <si>
+    <t>ZWF Zeitschrift fuer Wirtschaftlichen Fabrikbetrieb</t>
+  </si>
+  <si>
+    <t>10.1515/zwf-2024-0166</t>
+  </si>
+  <si>
+    <t>Digital twin designs with generative AI: crafting a comprehensive framework for manufacturing systems</t>
+  </si>
+  <si>
+    <t>Journal of Intelligent Manufacturing</t>
+  </si>
+  <si>
+    <t>10.1007/s10845-025-02583-8</t>
+  </si>
+  <si>
+    <t>Conceptualisation of a multimodal, non-intrusive, generative AI-based assistive system for assembly</t>
+  </si>
+  <si>
+    <t>CIRP Annals</t>
+  </si>
+  <si>
+    <t>10.1016/j.cirp.2025.04.061</t>
+  </si>
+  <si>
+    <t>Generative AI in manufacturing: A literature review of recent applications and future prospects</t>
+  </si>
+  <si>
+    <t>10.1016/j.procir.2025.01.001</t>
+  </si>
+  <si>
+    <t>Generative AI in industrial machine vision: a review</t>
+  </si>
+  <si>
+    <t>10.1007/s10845-025-02604-6</t>
   </si>
 </sst>
 </file>
@@ -837,8 +885,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1374,10 +1428,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1709,6 +1763,90 @@
         <v>64</v>
       </c>
     </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D23">
     <sortCondition ref="B2" descending="1"/>
